--- a/documents/04プログラミング/進捗管理.xlsx
+++ b/documents/04プログラミング/進捗管理.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{85E6A6B5-BF6E-456E-8942-4CB370291564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA73E87A-F507-42BB-87A2-4D0E93B4191D}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{85E6A6B5-BF6E-456E-8942-4CB370291564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7383770-64D4-44E7-9E25-B4128AA70A2D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CD01582-32A8-4B25-842B-5BAE83E1F50A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="112">
   <si>
     <t>項番</t>
   </si>
@@ -125,9 +125,6 @@
     <t>受講者　ログインDAO</t>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
     <t>TeachIdpw.java</t>
   </si>
   <si>
@@ -411,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,12 +445,6 @@
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -669,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,9 +734,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1077,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4596BB3-5D2B-46C4-8C60-D76AA99BB5F5}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D60" sqref="C51:D60"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1201,8 +1189,8 @@
       <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>19</v>
+      <c r="F5" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>12</v>
@@ -1219,10 +1207,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -1245,10 +1233,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -1271,10 +1259,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>11</v>
@@ -1297,10 +1285,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
@@ -1323,16 +1311,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>19</v>
+      <c r="F10" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>12</v>
@@ -1349,22 +1337,24 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G11" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="2"/>
       <c r="J11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1373,22 +1363,24 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="2"/>
       <c r="J12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1397,10 +1389,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>11</v>
@@ -1414,7 +1406,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="2"/>
       <c r="J13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1423,16 +1415,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>12</v>
@@ -1440,7 +1432,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="2"/>
       <c r="J14" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1449,16 +1441,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E15" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>12</v>
@@ -1466,7 +1458,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="2"/>
       <c r="J15" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1475,16 +1467,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="E16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>12</v>
@@ -1492,7 +1484,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="2"/>
       <c r="J16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1501,16 +1493,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>12</v>
@@ -1527,16 +1519,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>40</v>
+      <c r="F18" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>12</v>
@@ -1544,7 +1536,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="2"/>
       <c r="J18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1553,16 +1545,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="E19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>11</v>
+      <c r="F19" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>12</v>
@@ -1579,16 +1571,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>12</v>
@@ -1605,10 +1597,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>11</v>
@@ -1622,7 +1614,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="3"/>
       <c r="J21" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1631,22 +1623,24 @@
         <v>20</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="E22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="G22" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="3"/>
       <c r="J22" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1655,22 +1649,24 @@
         <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="G23" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1679,22 +1675,24 @@
         <v>22</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="G24" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="3"/>
       <c r="J24" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1703,10 +1701,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>11</v>
@@ -1720,7 +1718,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="3"/>
       <c r="J25" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1729,10 +1727,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>11</v>
@@ -1746,7 +1744,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="3"/>
       <c r="J26" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1755,15 +1753,17 @@
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="18"/>
+      <c r="E27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G27" s="17" t="s">
         <v>12</v>
       </c>
@@ -1777,10 +1777,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>11</v>
@@ -1794,7 +1794,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="3"/>
       <c r="J28" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1803,13 +1803,17 @@
         <v>27</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G29" s="17" t="s">
         <v>12</v>
       </c>
@@ -1823,22 +1827,24 @@
         <v>28</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="18"/>
+      <c r="E30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G30" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="3"/>
       <c r="J30" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1847,10 +1853,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>11</v>
@@ -1864,7 +1870,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="3"/>
       <c r="J31" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1873,22 +1879,24 @@
         <v>30</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="E32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="18"/>
+      <c r="F32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="3"/>
       <c r="J32" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1897,22 +1905,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="E33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="18"/>
+      <c r="F33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="3"/>
       <c r="J33" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1921,22 +1931,24 @@
         <v>32</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="E34" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="18"/>
+      <c r="G34" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="3"/>
       <c r="J34" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1945,22 +1957,24 @@
         <v>33</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E35" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="18"/>
+      <c r="G35" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H35" s="18"/>
       <c r="I35" s="8"/>
       <c r="J35" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1969,22 +1983,24 @@
         <v>34</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="18"/>
+      <c r="E36" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H36" s="13"/>
       <c r="I36" s="3"/>
       <c r="J36" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1993,22 +2009,24 @@
         <v>35</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="18"/>
+      <c r="E37" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H37" s="13"/>
       <c r="I37" s="3"/>
       <c r="J37" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2017,22 +2035,24 @@
         <v>36</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="18"/>
+      <c r="E38" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H38" s="18"/>
       <c r="I38" s="8"/>
       <c r="J38" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2041,21 +2061,23 @@
         <v>37</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>40</v>
+      <c r="E39" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="18"/>
+      <c r="G39" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>13</v>
@@ -2067,22 +2089,24 @@
         <v>38</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="E40" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="18"/>
+      <c r="G40" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H40" s="13"/>
       <c r="I40" s="3"/>
       <c r="J40" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2091,22 +2115,24 @@
         <v>39</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="E41" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="18"/>
+      <c r="G41" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H41" s="13"/>
       <c r="I41" s="3"/>
       <c r="J41" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2115,18 +2141,20 @@
         <v>40</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="E42" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="3"/>
       <c r="J42" s="13" t="s">
@@ -2139,18 +2167,20 @@
         <v>41</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="E43" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H43" s="13"/>
       <c r="I43" s="3"/>
       <c r="J43" s="13" t="s">
@@ -2163,22 +2193,24 @@
         <v>42</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E44" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="18"/>
+      <c r="G44" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H44" s="13"/>
       <c r="I44" s="3"/>
       <c r="J44" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2187,22 +2219,24 @@
         <v>43</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="18"/>
+      <c r="G45" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H45" s="13"/>
       <c r="I45" s="3"/>
       <c r="J45" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2211,22 +2245,24 @@
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="E46" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="18"/>
+      <c r="G46" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H46" s="13"/>
       <c r="I46" s="2"/>
       <c r="J46" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2244,31 +2280,31 @@
       <c r="J47" s="12"/>
     </row>
     <row r="51" spans="4:6" ht="15.75">
-      <c r="D51" s="29"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52" spans="4:6" ht="15.75">
-      <c r="F52" s="29"/>
+      <c r="F52" s="28"/>
     </row>
     <row r="53" spans="4:6" ht="15.75">
-      <c r="F53" s="29"/>
+      <c r="F53" s="28"/>
     </row>
     <row r="54" spans="4:6" ht="15.75">
-      <c r="F54" s="29"/>
+      <c r="F54" s="28"/>
     </row>
     <row r="55" spans="4:6" ht="15.75">
-      <c r="F55" s="29"/>
+      <c r="F55" s="28"/>
     </row>
     <row r="56" spans="4:6" ht="15.75">
-      <c r="F56" s="29"/>
+      <c r="F56" s="28"/>
     </row>
     <row r="57" spans="4:6" ht="15.75">
-      <c r="F57" s="29"/>
+      <c r="F57" s="28"/>
     </row>
     <row r="58" spans="4:6" ht="15.75"/>
     <row r="59" spans="4:6" ht="15.75"/>
     <row r="60" spans="4:6" ht="15.75"/>
     <row r="61" spans="4:6" ht="15.75">
-      <c r="E61" s="29"/>
+      <c r="E61" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2277,6 +2313,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010078A33019B4A50349AA99FBFDC1855F24" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="a258a4a4352e20de035f334ea785eb46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="431090a79ec616b1d60ef345bde84e2f">
     <xsd:element name="properties">
@@ -2390,29 +2441,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CCA55C-FFDC-4D95-B16B-80F0EC1F2516}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5DCEAF-0500-404A-B5B7-CD314DC9D3D1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5DCEAF-0500-404A-B5B7-CD314DC9D3D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE66C3C9-7E7B-40DB-9795-854CBDE75798}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE66C3C9-7E7B-40DB-9795-854CBDE75798}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CCA55C-FFDC-4D95-B16B-80F0EC1F2516}"/>
 </file>